--- a/PythonLec/final_project/book_times.xlsx
+++ b/PythonLec/final_project/book_times.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="61">
-  <si>
-    <t>ISBN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="84">
   <si>
     <t>Start Read Time</t>
   </si>
@@ -233,6 +230,102 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스,지하철</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;. &quot;m&quot;. &quot;d&quot;  &quot;hh&quot;:&quot;mm&quot;:&quot;ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -266,6 +359,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +397,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -603,12 +702,12 @@
   <dimension ref="A1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="8"/>
@@ -616,36 +715,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>9788947540674</v>
+      <c r="A2" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="3">
         <v>42432.548611111109</v>
@@ -654,13 +753,13 @@
         <v>42432.571527777778</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -670,8 +769,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>9788947540674</v>
+      <c r="A3" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B3" s="3">
         <v>42432.886111111111</v>
@@ -680,13 +779,13 @@
         <v>42432.925694444442</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>38</v>
@@ -696,8 +795,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>9788947540674</v>
+      <c r="A4" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="3">
         <v>42433.590277777781</v>
@@ -706,13 +805,13 @@
         <v>42433.606944444444</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H4" s="1">
         <v>87</v>
@@ -722,8 +821,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>9788947540674</v>
+      <c r="A5" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="3">
         <v>42433.784722222219</v>
@@ -732,13 +831,13 @@
         <v>42433.822916666664</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <v>112</v>
@@ -748,8 +847,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>9788947540674</v>
+      <c r="A6" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>42434.342361111114</v>
@@ -758,13 +857,13 @@
         <v>42434.370138888888</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H6" s="1">
         <v>153</v>
@@ -774,8 +873,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>9788947540674</v>
+      <c r="A7" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="3">
         <v>42434</v>
@@ -785,13 +884,13 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -801,8 +900,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>9788947540674</v>
+      <c r="A8" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B8" s="3">
         <v>42435</v>
@@ -811,10 +910,10 @@
         <v>42435</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -824,8 +923,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>9788947540674</v>
+      <c r="A9" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>42436.585416666669</v>
@@ -834,13 +933,13 @@
         <v>42436.602777777778</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H9" s="1">
         <v>187</v>
@@ -850,8 +949,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9788947540674</v>
+      <c r="A10" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B10" s="3">
         <v>42436</v>
@@ -861,13 +960,13 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -877,8 +976,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9788947540674</v>
+      <c r="A11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="3">
         <v>42437</v>
@@ -887,13 +986,13 @@
         <v>42437</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -903,8 +1002,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9788947540674</v>
+      <c r="A12" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="3">
         <v>42437</v>
@@ -913,13 +1012,13 @@
         <v>42437</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -929,8 +1028,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>9788947540674</v>
+      <c r="A13" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B13" s="3">
         <v>42438</v>
@@ -939,13 +1038,13 @@
         <v>42438</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -955,8 +1054,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>9788947540674</v>
+      <c r="A14" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="3">
         <v>42438.71875</v>
@@ -965,13 +1064,13 @@
         <v>42438.757638888892</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
         <v>196</v>
@@ -981,8 +1080,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>9788947540674</v>
+      <c r="A15" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B15" s="3">
         <v>42439</v>
@@ -991,10 +1090,10 @@
         <v>42439</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1004,8 +1103,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>9788947540674</v>
+      <c r="A16" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="3">
         <v>42440.491666666669</v>
@@ -1014,13 +1113,13 @@
         <v>42440.554861111108</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H16" s="1">
         <v>253</v>
@@ -1030,8 +1129,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>9788947540674</v>
+      <c r="A17" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="3">
         <v>42440</v>
@@ -1040,13 +1139,13 @@
         <v>42440</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1056,8 +1155,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>9788947540674</v>
+      <c r="A18" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B18" s="3">
         <v>42441.340277777781</v>
@@ -1066,13 +1165,13 @@
         <v>42441.357638888891</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1">
         <v>337</v>
@@ -1082,8 +1181,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>9788966261437</v>
+      <c r="A19" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B19" s="3">
         <v>42443.585416666669</v>
@@ -1092,13 +1191,13 @@
         <v>42443.6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -1108,8 +1207,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>9788966261437</v>
+      <c r="A20" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B20" s="3">
         <v>42443.918749999997</v>
@@ -1118,13 +1217,13 @@
         <v>42443.947222222225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <v>40</v>
@@ -1134,8 +1233,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>9788966261437</v>
+      <c r="A21" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>42444</v>
@@ -1144,10 +1243,10 @@
         <v>42444</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1157,8 +1256,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>9788966261437</v>
+      <c r="A22" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B22" s="3">
         <v>42445.534722222219</v>
@@ -1167,13 +1266,13 @@
         <v>42445.556250000001</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H22" s="1">
         <v>106</v>
@@ -1183,8 +1282,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>9788966261437</v>
+      <c r="A23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B23" s="3">
         <v>42445</v>
@@ -1193,13 +1292,13 @@
         <v>42445</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1209,8 +1308,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>9788966261437</v>
+      <c r="A24" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B24" s="3">
         <v>42446</v>
@@ -1219,13 +1318,13 @@
         <v>42446</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1235,8 +1334,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9788966261437</v>
+      <c r="A25" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B25" s="3">
         <v>42446.888888888891</v>
@@ -1245,13 +1344,13 @@
         <v>42446.918055555558</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
         <v>160</v>
@@ -1261,8 +1360,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>9788966261437</v>
+      <c r="A26" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="3">
         <v>42447.552083333336</v>
@@ -1271,13 +1370,13 @@
         <v>42447.59375</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
         <v>228</v>
@@ -1287,8 +1386,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>9788966261437</v>
+      <c r="A27" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B27" s="3">
         <v>42447.644444444442</v>
@@ -1297,13 +1396,13 @@
         <v>42447.648611111108</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H27" s="1">
         <v>264</v>
@@ -1313,8 +1412,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>9791195677108</v>
+      <c r="A28" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="3">
         <v>42450.525000000001</v>
@@ -1323,13 +1422,13 @@
         <v>42450.552083333336</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -1339,8 +1438,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>9791195677108</v>
+      <c r="A29" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B29" s="3">
         <v>42450.9375</v>
@@ -1349,13 +1448,13 @@
         <v>42450.972916666666</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
         <v>55</v>
@@ -1365,8 +1464,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>9791195677108</v>
+      <c r="A30" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="3">
         <v>42451.573611111111</v>
@@ -1375,13 +1474,13 @@
         <v>42451.601388888892</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H30" s="1">
         <v>97</v>
@@ -1391,8 +1490,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>9791195677108</v>
+      <c r="A31" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="3">
         <v>42451.90625</v>
@@ -1402,13 +1501,13 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1418,8 +1517,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>9791195677108</v>
+      <c r="A32" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B32" s="3">
         <v>42452.53125</v>
@@ -1428,13 +1527,13 @@
         <v>42452.555555555555</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H32" s="1">
         <v>141</v>
@@ -1444,8 +1543,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>9791195677108</v>
+      <c r="A33" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="3">
         <v>42452.777777777781</v>
@@ -1454,13 +1553,13 @@
         <v>42452.800694444442</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -1470,8 +1569,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>9791195677108</v>
+      <c r="A34" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B34" s="3">
         <v>42453.895833333336</v>
@@ -1480,7 +1579,7 @@
         <v>42453.931250000001</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="1">
@@ -1491,8 +1590,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>9791195677108</v>
+      <c r="A35" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B35" s="3">
         <v>42454.840277777781</v>
@@ -1501,13 +1600,13 @@
         <v>42454.868055555555</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1">
         <v>235</v>
@@ -1517,8 +1616,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>9791195677108</v>
+      <c r="A36" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B36" s="3">
         <v>42455.328472222223</v>
@@ -1527,13 +1626,13 @@
         <v>42455.357638888891</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1">
         <v>283</v>
@@ -1543,8 +1642,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>9791195677108</v>
+      <c r="A37" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B37" s="3">
         <v>42456.506944444445</v>
@@ -1553,10 +1652,10 @@
         <v>42456.510416666664</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1">
         <v>332</v>
@@ -1566,8 +1665,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>9788994120966</v>
+      <c r="A38" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>42457.525694444441</v>
@@ -1576,13 +1675,13 @@
         <v>42457.555555555555</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -1592,8 +1691,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>9788994120966</v>
+      <c r="A39" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="3">
         <v>42457.911805555559</v>
@@ -1602,13 +1701,13 @@
         <v>42457.9375</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1">
         <v>49</v>
@@ -1618,8 +1717,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>9788994120966</v>
+      <c r="A40" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B40" s="3">
         <v>42458</v>
@@ -1628,10 +1727,10 @@
         <v>42458</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -1641,8 +1740,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>9788994120966</v>
+      <c r="A41" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B41" s="3">
         <v>42459</v>
@@ -1651,10 +1750,10 @@
         <v>42459</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -1664,8 +1763,8 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>9788994120966</v>
+      <c r="A42" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B42" s="3">
         <v>42460.809027777781</v>
@@ -1674,10 +1773,10 @@
         <v>42460.840277777781</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1">
         <v>95</v>
@@ -1687,8 +1786,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>9788994120966</v>
+      <c r="A43" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B43" s="3">
         <v>42461</v>
@@ -1697,10 +1796,10 @@
         <v>42461</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -1710,8 +1809,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>9788994120966</v>
+      <c r="A44" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B44" s="3">
         <v>42462.336805555555</v>
@@ -1720,13 +1819,13 @@
         <v>42462.361111111109</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1">
         <v>160</v>
@@ -1736,8 +1835,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>9788994120966</v>
+      <c r="A45" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B45" s="3">
         <v>42463.423611111109</v>
@@ -1746,13 +1845,13 @@
         <v>42463.476388888892</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1">
         <v>212</v>
@@ -1762,8 +1861,8 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>9788994120997</v>
+      <c r="A46" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B46" s="3">
         <v>42464.549305555556</v>
@@ -1772,13 +1871,13 @@
         <v>42464.568749999999</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -1788,8 +1887,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>9788994120997</v>
+      <c r="A47" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B47" s="3">
         <v>42464.847222222219</v>
@@ -1798,13 +1897,13 @@
         <v>42464.85833333333</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1">
         <v>28</v>
@@ -1814,8 +1913,8 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>9788994120997</v>
+      <c r="A48" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B48" s="3">
         <v>42465.540277777778</v>
@@ -1824,14 +1923,14 @@
         <v>42465.5625</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1">
         <v>47</v>
@@ -1841,8 +1940,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>9788994120997</v>
+      <c r="A49" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B49" s="3">
         <v>42465.871527777781</v>
@@ -1851,13 +1950,13 @@
         <v>42465.905555555553</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1">
         <v>69</v>
@@ -1867,8 +1966,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>9788994120997</v>
+      <c r="A50" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B50" s="3">
         <v>42466.529166666667</v>
@@ -1877,13 +1976,13 @@
         <v>42466.555555555555</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H50" s="1">
         <v>123</v>
@@ -1893,8 +1992,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>9788994120997</v>
+      <c r="A51" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B51" s="3">
         <v>42466.909722222219</v>
@@ -1903,13 +2002,13 @@
         <v>42466.938888888886</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="1">
         <v>172</v>
@@ -1919,8 +2018,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>9788994120997</v>
+      <c r="A52" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B52" s="3">
         <v>42467.882638888892</v>
@@ -1929,13 +2028,13 @@
         <v>42467.913888888892</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1">
         <v>241</v>
@@ -1945,8 +2044,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>9788994120997</v>
+      <c r="A53" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B53" s="3">
         <v>42468</v>
@@ -1955,7 +2054,7 @@
         <v>42468</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="6">
         <v>1</v>
@@ -1968,8 +2067,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>9788994120997</v>
+      <c r="A54" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B54" s="3">
         <v>42469.743750000001</v>
@@ -1978,10 +2077,10 @@
         <v>42469.772916666669</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="6">
         <v>2</v>
@@ -1994,8 +2093,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
-        <v>9788932917429</v>
+      <c r="A55" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B55" s="3">
         <v>42471.538888888892</v>
@@ -2004,10 +2103,10 @@
         <v>42471.564583333333</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
@@ -2020,8 +2119,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="9">
-        <v>9788932917429</v>
+      <c r="A56" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B56" s="3">
         <v>42471.888888888891</v>
@@ -2030,10 +2129,10 @@
         <v>42471.918055555558</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G56" s="7">
         <v>1</v>
@@ -2046,8 +2145,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>9788932917429</v>
+      <c r="A57" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B57" s="3">
         <v>42472.577777777777</v>
@@ -2056,10 +2155,10 @@
         <v>42471.602083333331</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -2072,8 +2171,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
-        <v>9788932917429</v>
+      <c r="A58" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B58" s="3">
         <v>42472.90347222222</v>
@@ -2082,10 +2181,10 @@
         <v>42471.93472222222</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G58" s="7">
         <v>1</v>
@@ -2098,8 +2197,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="9">
-        <v>9788932917429</v>
+      <c r="A59" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B59" s="3">
         <v>42473.527777777781</v>
@@ -2108,10 +2207,10 @@
         <v>42473.550694444442</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="7">
         <v>1</v>
@@ -2124,8 +2223,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
-        <v>9788932917429</v>
+      <c r="A60" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B60" s="3">
         <v>42473.864583333336</v>
@@ -2134,10 +2233,10 @@
         <v>42473.888888888891</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
@@ -2150,8 +2249,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
-        <v>9788932917429</v>
+      <c r="A61" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B61" s="3">
         <v>42474.537499999999</v>
@@ -2160,10 +2259,10 @@
         <v>42474.563888888886</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
@@ -2176,8 +2275,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
-        <v>9788932917429</v>
+      <c r="A62" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B62" s="3">
         <v>42474.905555555553</v>
@@ -2186,10 +2285,10 @@
         <v>42474.925000000003</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
@@ -2202,8 +2301,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="9">
-        <v>9788932917429</v>
+      <c r="A63" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B63" s="3">
         <v>42475.549305555556</v>
@@ -2212,13 +2311,13 @@
         <v>42475.583333333336</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="G63" s="7">
         <v>1</v>
@@ -2231,8 +2330,8 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="9">
-        <v>9788932917429</v>
+      <c r="A64" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B64" s="3">
         <v>42475.840277777781</v>
@@ -2241,10 +2340,10 @@
         <v>42475.87222222222</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
@@ -2257,8 +2356,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="9">
-        <v>9788932917429</v>
+      <c r="A65" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>42476.319444444445</v>
@@ -2267,10 +2366,10 @@
         <v>42476.34375</v>
       </c>
       <c r="D65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G65" s="7">
         <v>2</v>
@@ -2283,8 +2382,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
-        <v>9788932917429</v>
+      <c r="A66" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B66" s="3">
         <v>42478.579861111109</v>
@@ -2293,13 +2392,13 @@
         <v>42478.595833333333</v>
       </c>
       <c r="D66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="G66" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H66" s="2">
         <v>296</v>
@@ -2309,8 +2408,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
-        <v>9788932917429</v>
+      <c r="A67" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B67" s="3">
         <v>42478.798611111109</v>
@@ -2319,11 +2418,11 @@
         <v>42478.8125</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E67" s="5"/>
       <c r="G67" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" s="2">
         <v>321</v>
@@ -2333,8 +2432,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="9">
-        <v>9788932917429</v>
+      <c r="A68" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B68" s="3">
         <v>42478.902777777781</v>
@@ -2343,13 +2442,13 @@
         <v>42478.925000000003</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" s="2">
         <v>338</v>
@@ -2359,8 +2458,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="9">
-        <v>9788932917429</v>
+      <c r="A69" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B69" s="3">
         <v>42479.538888888892</v>
@@ -2369,13 +2468,13 @@
         <v>42479.549305555556</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="G69" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H69" s="2">
         <v>366</v>
@@ -2385,8 +2484,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="9">
-        <v>9788932917429</v>
+      <c r="A70" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
         <v>42479.870138888888</v>
@@ -2395,13 +2494,13 @@
         <v>42479.9</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70" s="2">
         <v>381</v>
@@ -2411,8 +2510,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>9791185014982</v>
+      <c r="A71" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
         <v>42480.895833333336</v>
@@ -2421,13 +2520,13 @@
         <v>42480.923611111109</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
@@ -2437,8 +2536,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>9791185014982</v>
+      <c r="A72" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B72" s="3">
         <v>42481.524305555555</v>
@@ -2447,13 +2546,13 @@
         <v>42481.560416666667</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="G72" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H72" s="2">
         <v>45</v>
@@ -2463,8 +2562,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>9791185014982</v>
+      <c r="A73" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B73" s="3">
         <v>42481.6875</v>
@@ -2473,10 +2572,10 @@
         <v>42481.75</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -2486,8 +2585,8 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>9791185014982</v>
+      <c r="A74" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B74" s="3">
         <v>42481.916666666664</v>
@@ -2497,13 +2596,13 @@
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G74" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
@@ -2513,8 +2612,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>9791185014982</v>
+      <c r="A75" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B75" s="3">
         <v>42483.326388888891</v>
@@ -2523,13 +2622,13 @@
         <v>42483.347222222219</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G75" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75" s="2">
         <v>102</v>
@@ -2539,8 +2638,8 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>9791185014982</v>
+      <c r="A76" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B76" s="3">
         <v>42483.732638888891</v>
@@ -2549,13 +2648,13 @@
         <v>42483.765972222223</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H76" s="2">
         <v>138</v>
@@ -2565,8 +2664,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>9791185014982</v>
+      <c r="A77" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42485.53125</v>
@@ -2575,13 +2674,13 @@
         <v>42485.560416666667</v>
       </c>
       <c r="D77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="G77" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H77" s="2">
         <v>184</v>
@@ -2591,8 +2690,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>9791185014982</v>
+      <c r="A78" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B78" s="3">
         <v>42485.9375</v>
@@ -2601,13 +2700,13 @@
         <v>42485.966666666667</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78" s="2">
         <v>228</v>
@@ -2617,8 +2716,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>9791185014982</v>
+      <c r="A79" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B79" s="3">
         <v>42486.520833333336</v>
@@ -2627,13 +2726,13 @@
         <v>42486.541666666664</v>
       </c>
       <c r="D79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="G79" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H79" s="2">
         <v>279</v>
@@ -2643,8 +2742,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>9791185014982</v>
+      <c r="A80" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B80" s="3">
         <v>42486.652777777781</v>
@@ -2653,10 +2752,10 @@
         <v>42486.702777777777</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80" s="2">
         <v>309</v>
@@ -2666,8 +2765,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>9791185014982</v>
+      <c r="A81" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B81" s="3">
         <v>42486.85</v>
@@ -2676,13 +2775,13 @@
         <v>42486.864583333336</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81" s="2">
         <v>383</v>
@@ -2692,8 +2791,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>9791185014982</v>
+      <c r="A82" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="B82" s="3">
         <v>42488.497916666667</v>
@@ -2702,13 +2801,13 @@
         <v>42488.595138888886</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H82" s="2">
         <v>411</v>
@@ -2718,8 +2817,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>9788962620887</v>
+      <c r="A83" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B83" s="3">
         <v>42492.541666666664</v>
@@ -2728,13 +2827,13 @@
         <v>42492.567361111112</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="G83" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H83" s="2">
         <v>1</v>
@@ -2744,8 +2843,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>9788962620887</v>
+      <c r="A84" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B84" s="3">
         <v>42494.583333333336</v>
@@ -2754,10 +2853,10 @@
         <v>42494.607638888891</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84" s="2">
         <v>70</v>
@@ -2767,8 +2866,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>9788962620887</v>
+      <c r="A85" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B85" s="3">
         <v>42494.84375</v>
@@ -2777,13 +2876,13 @@
         <v>42494.875</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H85" s="2">
         <v>146</v>
@@ -2793,8 +2892,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>9788962620887</v>
+      <c r="A86" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="B86" s="3">
         <v>42494.909722222219</v>
@@ -2803,13 +2902,13 @@
         <v>42494.935416666667</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86" s="2">
         <v>226</v>
@@ -2819,8 +2918,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>9788937834790</v>
+      <c r="A87" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B87" s="3">
         <v>42497.326388888891</v>
@@ -2829,13 +2928,13 @@
         <v>42497.351388888892</v>
       </c>
       <c r="D87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G87" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H87" s="2">
         <v>1</v>
@@ -2845,8 +2944,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>9788937834790</v>
+      <c r="A88" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B88" s="3">
         <v>42499.394444444442</v>
@@ -2855,13 +2954,13 @@
         <v>42499.418749999997</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88" s="2">
         <v>50</v>
@@ -2871,8 +2970,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>9788937834790</v>
+      <c r="A89" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B89" s="3">
         <v>42500.615277777775</v>
@@ -2881,13 +2980,13 @@
         <v>42500.62777777778</v>
       </c>
       <c r="D89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="G89" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H89" s="2">
         <v>85</v>
@@ -2897,8 +2996,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>9788937834790</v>
+      <c r="A90" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B90" s="3">
         <v>42500.848611111112</v>
@@ -2907,13 +3006,13 @@
         <v>42500.876388888886</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90" s="2">
         <v>108</v>
@@ -2923,8 +3022,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>9788937834790</v>
+      <c r="A91" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B91" s="3">
         <v>42501.413194444445</v>
@@ -2933,10 +3032,10 @@
         <v>42501.423611111109</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="2">
         <v>166</v>
@@ -2946,8 +3045,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>9788937834790</v>
+      <c r="A92" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B92" s="3">
         <v>42501.526388888888</v>
@@ -2956,13 +3055,13 @@
         <v>42501.555555555555</v>
       </c>
       <c r="D92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="G92" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H92" s="2">
         <v>192</v>
@@ -2972,8 +3071,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>9788937834790</v>
+      <c r="A93" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B93" s="3">
         <v>42501.879166666666</v>
@@ -2982,13 +3081,13 @@
         <v>42501.893055555556</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93" s="2">
         <v>229</v>
@@ -2998,8 +3097,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>9788937834790</v>
+      <c r="A94" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B94" s="3">
         <v>42502.782638888886</v>
@@ -3008,13 +3107,13 @@
         <v>42502.802083333336</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G94" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H94" s="2">
         <v>255</v>
@@ -3024,8 +3123,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>9788937834790</v>
+      <c r="A95" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B95" s="3">
         <v>42502.819444444445</v>
@@ -3034,10 +3133,10 @@
         <v>42502.831944444442</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95" s="2">
         <v>287</v>
@@ -3047,8 +3146,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>9788937834790</v>
+      <c r="A96" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B96" s="3">
         <v>42502.841666666667</v>
@@ -3057,11 +3156,11 @@
         <v>42502.85833333333</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E96" s="5"/>
       <c r="G96" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96" s="2">
         <v>302</v>
@@ -3071,8 +3170,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>9788937834790</v>
+      <c r="A97" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B97" s="3">
         <v>42502.863888888889</v>
@@ -3081,13 +3180,13 @@
         <v>42502.885416666664</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97" s="2">
         <v>328</v>
@@ -3097,8 +3196,8 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>9788934974215</v>
+      <c r="A98" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B98" s="3">
         <v>42506.345138888886</v>
@@ -3107,13 +3206,13 @@
         <v>42506.365277777775</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -3123,8 +3222,8 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>9788934974215</v>
+      <c r="A99" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B99" s="3">
         <v>42506.793749999997</v>
@@ -3133,13 +3232,13 @@
         <v>42506.802083333336</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E99" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H99" s="2">
         <v>28</v>
@@ -3149,8 +3248,8 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>9788934974215</v>
+      <c r="A100" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B100" s="3">
         <v>42507.338194444441</v>
@@ -3159,13 +3258,13 @@
         <v>42507.359027777777</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" s="2">
         <v>48</v>
@@ -3175,8 +3274,8 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>9788934974215</v>
+      <c r="A101" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B101" s="3">
         <v>42507.772222222222</v>
@@ -3185,13 +3284,13 @@
         <v>42507.806250000001</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E101" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H101" s="2">
         <v>87</v>
@@ -3201,8 +3300,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>9788934974222</v>
+      <c r="A102" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B102" s="3">
         <v>42509.345833333333</v>
@@ -3211,13 +3310,13 @@
         <v>42509.368055555555</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -3227,8 +3326,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>9788934974222</v>
+      <c r="A103" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B103" s="3">
         <v>42509.775000000001</v>
@@ -3237,13 +3336,13 @@
         <v>42509.798611111109</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E103" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H103" s="2">
         <v>41</v>
@@ -3253,8 +3352,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>9788934974222</v>
+      <c r="A104" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B104" s="3">
         <v>42510.342361111114</v>
@@ -3263,13 +3362,13 @@
         <v>42510.362500000003</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H104" s="2">
         <v>77</v>
@@ -3279,8 +3378,8 @@
       </c>
     </row>
     <row r="105" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>9788934974222</v>
+      <c r="A105" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B105" s="3">
         <v>42510.783333333333</v>
@@ -3289,13 +3388,13 @@
         <v>42510.81527777778</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H105" s="2">
         <v>115</v>
@@ -3305,8 +3404,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>9788934974222</v>
+      <c r="A106" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B106" s="3">
         <v>42511.318749999999</v>
@@ -3315,13 +3414,13 @@
         <v>42511.339583333334</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H106" s="2">
         <v>166</v>
@@ -3331,8 +3430,8 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>9788901206271</v>
+      <c r="A107" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B107" s="3">
         <v>42511.715277777781</v>
@@ -3341,13 +3440,13 @@
         <v>42511.748611111114</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H107" s="2">
         <v>1</v>
@@ -3357,8 +3456,8 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>9788901206271</v>
+      <c r="A108" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B108" s="3">
         <v>42513.34375</v>
@@ -3367,13 +3466,13 @@
         <v>42513.364583333336</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" s="2">
         <v>62</v>
@@ -3383,8 +3482,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>9788901206271</v>
+      <c r="A109" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B109" s="3">
         <v>42513.770833333336</v>
@@ -3393,13 +3492,13 @@
         <v>42513.8</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E109" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H109" s="2">
         <v>102</v>
@@ -3409,8 +3508,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>9788901206271</v>
+      <c r="A110" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B110" s="3">
         <v>42514.355555555558</v>
@@ -3419,13 +3518,13 @@
         <v>42514.365277777775</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H110" s="2">
         <v>151</v>
@@ -3435,8 +3534,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>9788901206271</v>
+      <c r="A111" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B111" s="3">
         <v>42514.771527777775</v>
@@ -3445,13 +3544,13 @@
         <v>42514.791666666664</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E111" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H111" s="2">
         <v>171</v>
@@ -3461,8 +3560,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>9788901206271</v>
+      <c r="A112" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B112" s="3">
         <v>42515.347916666666</v>
@@ -3471,13 +3570,13 @@
         <v>42515.359722222223</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H112" s="2">
         <v>202</v>
@@ -3487,8 +3586,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>9788959892235</v>
+      <c r="A113" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B113" s="3">
         <v>42517.354166666664</v>
@@ -3497,13 +3596,13 @@
         <v>42517.364583333336</v>
       </c>
       <c r="D113" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="G113" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
@@ -3513,8 +3612,8 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>9788959892235</v>
+      <c r="A114" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B114" s="3">
         <v>42517.774305555555</v>
@@ -3523,13 +3622,13 @@
         <v>42517.783333333333</v>
       </c>
       <c r="D114" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G114" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H114" s="2">
         <v>35</v>
@@ -3539,8 +3638,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>9788959892235</v>
+      <c r="A115" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B115" s="3">
         <v>42518.324305555558</v>
@@ -3549,13 +3648,13 @@
         <v>42518.348611111112</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H115" s="2">
         <v>49</v>
@@ -3565,8 +3664,8 @@
       </c>
     </row>
     <row r="116" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>9788959892235</v>
+      <c r="A116" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B116" s="3">
         <v>42519.341666666667</v>
@@ -3575,13 +3674,13 @@
         <v>42519.368750000001</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H116" s="2">
         <v>100</v>
@@ -3591,8 +3690,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>9788959892235</v>
+      <c r="A117" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B117" s="3">
         <v>42519.509722222225</v>
@@ -3601,13 +3700,13 @@
         <v>42519.530555555553</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H117" s="2">
         <v>150</v>
@@ -3617,8 +3716,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>9788959892235</v>
+      <c r="A118" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B118" s="3">
         <v>42521.345833333333</v>
@@ -3627,13 +3726,13 @@
         <v>42521.369444444441</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H118" s="2">
         <v>188</v>
@@ -3643,8 +3742,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>9788959892235</v>
+      <c r="A119" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B119" s="3">
         <v>42521.770833333336</v>
@@ -3653,13 +3752,13 @@
         <v>42521.795138888891</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H119" s="2">
         <v>234</v>
@@ -3669,25 +3768,186 @@
       </c>
     </row>
     <row r="120" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G120" s="7"/>
+      <c r="A120" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B120" s="3">
+        <v>42529.512499999997</v>
+      </c>
+      <c r="C120" s="3">
+        <v>42529.536805555559</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="I120" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G121" s="7"/>
+      <c r="A121" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="3">
+        <v>42529.758333333331</v>
+      </c>
+      <c r="C121" s="3">
+        <v>42529.786111111112</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H121" s="2">
+        <v>50</v>
+      </c>
+      <c r="I121" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G122" s="7"/>
+      <c r="A122" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B122" s="3">
+        <v>42532.3125</v>
+      </c>
+      <c r="C122" s="3">
+        <v>42532.336805555555</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H122" s="2">
+        <v>86</v>
+      </c>
+      <c r="I122" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="123" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G123" s="7"/>
+      <c r="A123" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B123" s="3">
+        <v>42532.745833333334</v>
+      </c>
+      <c r="C123" s="3">
+        <v>42532.772916666669</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H123" s="2">
+        <v>132</v>
+      </c>
+      <c r="I123" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="124" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G124" s="7"/>
+      <c r="A124" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="3">
+        <v>42534.322916666664</v>
+      </c>
+      <c r="C124" s="3">
+        <v>42534.363194444442</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H124" s="2">
+        <v>178</v>
+      </c>
+      <c r="I124" s="2">
+        <v>253</v>
+      </c>
     </row>
     <row r="125" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G125" s="7"/>
+      <c r="A125" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="3">
+        <v>42534.771527777775</v>
+      </c>
+      <c r="C125" s="3">
+        <v>42534.819444444445</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H125" s="2">
+        <v>254</v>
+      </c>
+      <c r="I125" s="2">
+        <v>335</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G126" s="7"/>
+      <c r="A126" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="3">
+        <v>42535.366666666669</v>
+      </c>
+      <c r="C126" s="3">
+        <v>42535.404861111114</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="2">
+        <v>335</v>
+      </c>
+      <c r="I126" s="2">
+        <v>405</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G127" s="7"/>
@@ -6311,5 +6571,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>